--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,15 @@
     <t>useless</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,22 +70,25 @@
     <t>loves</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>favorite</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>fantastic</t>
@@ -97,310 +97,301 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wedding</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>apples</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>mas</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>dough</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>fan</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>w</t>
+    <t>pan</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>ice</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>anyone</t>
+    <t>making</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>long</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>long</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>made</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -761,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -880,28 +871,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K4">
         <v>0.956989247311828</v>
@@ -930,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -980,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2868217054263566</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2830188679245283</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2424242424242424</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8671875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2051282051282051</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,95 +1139,71 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.8606811145510835</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>556</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>556</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1027027027027027</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>166</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.85</v>
-      </c>
-      <c r="L10">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>17</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7792207792207793</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7555555555555555</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.70995670995671</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L15">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1409,16 +1376,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6440677966101694</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6438356164383562</v>
+        <v>0.6576271186440678</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1487,16 +1454,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6260032102728732</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L21">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="M21">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1508,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6122448979591837</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6111111111111112</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6029411764705882</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1612,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5873015873015873</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1669,16 +1636,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5833333333333334</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1695,16 +1662,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1716,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1742,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.543859649122807</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5288461538461539</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5151515151515151</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,12 +1813,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>0.5076923076923077</v>
@@ -1877,16 +1844,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5029940119760479</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L36">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>0.5</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4923076923076923</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.4901960784313725</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4871794871794872</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L40">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M40">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4819277108433735</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4605263157894737</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>0.45</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4285714285714285</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,21 +2073,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4285714285714285</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.4262295081967213</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2158,15 +2125,15 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.425</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L47">
         <v>17</v>
@@ -2184,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4126984126984127</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.3975903614457831</v>
+        <v>0.41</v>
       </c>
       <c r="L49">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2236,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3902439024390244</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2262,15 +2229,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.3703703703703703</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L51">
         <v>30</v>
@@ -2288,21 +2255,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3571428571428572</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2314,21 +2281,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3455882352941176</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L53">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2340,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>267</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3454545454545455</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2366,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3404255319148936</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2392,21 +2359,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>31</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3333333333333333</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2418,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3289473684210527</v>
+        <v>0.3151750972762646</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2444,21 +2411,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3260869565217391</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2470,21 +2437,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3229571984435798</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L59">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2496,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3225806451612903</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2522,21 +2489,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.2941176470588235</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2548,12 +2515,12 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62">
         <v>0.2932330827067669</v>
@@ -2579,16 +2546,16 @@
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2877697841726619</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2600,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2833333333333333</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2626,21 +2593,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>43</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2780821917808219</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L65">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2652,21 +2619,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>527</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2685185185185185</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2678,21 +2645,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.25</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2704,21 +2671,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2476190476190476</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2730,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>79</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2440191387559809</v>
+        <v>0.25</v>
       </c>
       <c r="L69">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2756,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2352941176470588</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2782,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2317880794701987</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L71">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2808,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>116</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2277227722772277</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2834,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2271259418729817</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="L73">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2860,21 +2827,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>718</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2083333333333333</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2886,15 +2853,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>57</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2080536912751678</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L75">
         <v>31</v>
@@ -2912,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1974921630094044</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L76">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2938,21 +2905,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>256</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1891891891891892</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2964,12 +2931,12 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78">
         <v>0.1882352941176471</v>
@@ -2995,16 +2962,16 @@
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1847826086956522</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3016,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1785714285714286</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3042,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1748344370860927</v>
+        <v>0.1814569536423841</v>
       </c>
       <c r="L81">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M81">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3068,21 +3035,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1726342710997442</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L82">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="M82">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3094,21 +3061,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>647</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1651376146788991</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3120,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1612903225806452</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3146,47 +3113,47 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.1428571428571428</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L85">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="N85">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>96</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1367521367521368</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3198,21 +3165,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1307692307692308</v>
+        <v>0.16</v>
       </c>
       <c r="L87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3224,47 +3191,47 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.1299435028248588</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L88">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>154</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K89">
-        <v>0.1293800539083558</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L89">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3276,21 +3243,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K90">
-        <v>0.124031007751938</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L90">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3302,21 +3269,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>113</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1229508196721311</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L91">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M91">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3328,21 +3295,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>107</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K92">
-        <v>0.121654501216545</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L92">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M92">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3354,21 +3321,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1202749140893471</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L93">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M93">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3380,21 +3347,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>256</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1151515151515152</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L94">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M94">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3406,21 +3373,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>146</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1097560975609756</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3432,21 +3399,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1092436974789916</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L96">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M96">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3458,21 +3425,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>212</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K97">
-        <v>0.108974358974359</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M97">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3484,21 +3451,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1083743842364532</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="L98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3510,21 +3477,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K99">
-        <v>0.1042944785276074</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="L99">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M99">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3536,15 +3503,15 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>146</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K100">
-        <v>0.09210526315789473</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L100">
         <v>42</v>
@@ -3562,47 +3529,47 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>414</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K101">
-        <v>0.08856088560885608</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="L101">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M101">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K102">
-        <v>0.08636363636363636</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L102">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M102">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3614,21 +3581,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K103">
-        <v>0.08518518518518518</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L103">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3640,21 +3607,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>247</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K104">
-        <v>0.07875894988066826</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="L104">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M104">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3666,21 +3633,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>386</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K105">
-        <v>0.07258064516129033</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L105">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3692,47 +3659,47 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>230</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K106">
-        <v>0.07211538461538461</v>
+        <v>0.06312769010043041</v>
       </c>
       <c r="L106">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M106">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>193</v>
+        <v>653</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K107">
-        <v>0.06743185078909612</v>
+        <v>0.05788982259570495</v>
       </c>
       <c r="L107">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M107">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="N107">
         <v>0.98</v>
@@ -3744,15 +3711,15 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>650</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K108">
-        <v>0.06557377049180328</v>
+        <v>0.04428044280442804</v>
       </c>
       <c r="L108">
         <v>24</v>
@@ -3770,21 +3737,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>342</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K109">
-        <v>0.05583756345177665</v>
+        <v>0.04314720812182741</v>
       </c>
       <c r="L109">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M109">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3796,21 +3763,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K110">
-        <v>0.05503731343283582</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="L110">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="M110">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3822,21 +3789,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>1013</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K111">
-        <v>0.04428044280442804</v>
+        <v>0.03639846743295019</v>
       </c>
       <c r="L111">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M111">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3848,85 +3815,33 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K112">
-        <v>0.03076923076923077</v>
+        <v>0.02335640138408305</v>
       </c>
       <c r="L112">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M112">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N112">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O112">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="10:17">
-      <c r="J113" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K113">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L113">
-        <v>33</v>
-      </c>
-      <c r="M113">
-        <v>35</v>
-      </c>
-      <c r="N113">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O113">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P113" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q113">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K114">
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="L114">
-        <v>15</v>
-      </c>
-      <c r="M114">
-        <v>17</v>
-      </c>
-      <c r="N114">
-        <v>0.88</v>
-      </c>
-      <c r="O114">
-        <v>0.12</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>750</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
